--- a/00_Organsiatorisches/Zeitplanung.xlsx
+++ b/00_Organsiatorisches/Zeitplanung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Montag</t>
   </si>
@@ -103,15 +103,6 @@
   </si>
   <si>
     <t>9:00 - 18:00</t>
-  </si>
-  <si>
-    <t>- Abspann, Vorspann erstellen
-- Film zusammenfügen
-- Rendern
-- UPLOAD</t>
-  </si>
-  <si>
-    <t>PUFFER</t>
   </si>
   <si>
     <t>Präsentation</t>
@@ -127,6 +118,20 @@
 - abstrakte Szenen
 - erste Beleuchtung
 - Modelle zuteilen</t>
+  </si>
+  <si>
+    <t>Absprache Storyboard</t>
+  </si>
+  <si>
+    <t>13:45-15:15</t>
+  </si>
+  <si>
+    <t>-Rendern
+- Upload</t>
+  </si>
+  <si>
+    <t>- Abspann, Vorspann erstellen
+- Film zusammenfügen</t>
   </si>
 </sst>
 </file>
@@ -172,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -539,11 +544,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,9 +634,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -610,14 +643,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -631,76 +661,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1002,8 +1068,8 @@
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1068,55 +1134,59 @@
       <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27">
+      <c r="B3" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="26">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="19.8" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="39" t="s">
+      <c r="B4" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="45"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="19.8" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="46"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="19.8" customHeight="1" thickBot="1">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="47"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1">
       <c r="A7" s="25"/>
@@ -1158,61 +1228,63 @@
       <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27">
+      <c r="B9" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="26">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="19.8" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="45"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="19.8" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="46"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="19.8" customHeight="1" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="47"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1">
       <c r="A13" s="25"/>
@@ -1254,39 +1326,41 @@
       <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27">
+      <c r="B15" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="26">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29" t="s">
-        <v>30</v>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="36" t="s">
+      <c r="E16" s="54"/>
+      <c r="F16" s="34" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="58" t="s">
+      <c r="H16" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1294,25 +1368,25 @@
       <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="19.8" customHeight="1" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="60"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" s="25"/>
@@ -1354,59 +1428,61 @@
       <c r="A21" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27">
+      <c r="B21" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="26">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="1:8" ht="19.8" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="48" t="s">
+      <c r="B22" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="45"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="19.8" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="46"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" ht="19.8" customHeight="1" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="47"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" s="25"/>
@@ -1448,13 +1524,15 @@
       <c r="A27" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="B27" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" ht="19.8" customHeight="1">
       <c r="A28" s="8" t="s">
@@ -1462,8 +1540,8 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="30" t="s">
-        <v>28</v>
+      <c r="D28" s="51" t="s">
+        <v>26</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1476,7 +1554,7 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="31"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1488,21 +1566,14 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:H24"/>
+  <mergeCells count="16">
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D4:H6"/>
@@ -1511,6 +1582,14 @@
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="D16:E18"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B22:E24"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:H24"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
